--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H2">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I2">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J2">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N2">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O2">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P2">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q2">
-        <v>495.068081672016</v>
+        <v>503.6184162324533</v>
       </c>
       <c r="R2">
-        <v>4455.612735048144</v>
+        <v>4532.56574609208</v>
       </c>
       <c r="S2">
-        <v>0.8188111636178175</v>
+        <v>0.8464274176163158</v>
       </c>
       <c r="T2">
-        <v>0.8188111636178174</v>
+        <v>0.8464274176163159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H3">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I3">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J3">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q3">
-        <v>28.02852304639023</v>
+        <v>26.65071556354667</v>
       </c>
       <c r="R3">
-        <v>252.256707417512</v>
+        <v>239.85644007192</v>
       </c>
       <c r="S3">
-        <v>0.04635739693133373</v>
+        <v>0.04479164308730879</v>
       </c>
       <c r="T3">
-        <v>0.04635739693133373</v>
+        <v>0.04479164308730878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H4">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I4">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J4">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N4">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q4">
-        <v>24.955808388534</v>
+        <v>38.11864812041999</v>
       </c>
       <c r="R4">
-        <v>224.602275496806</v>
+        <v>343.0678330837799</v>
       </c>
       <c r="S4">
-        <v>0.04127532204586047</v>
+        <v>0.06406570500928593</v>
       </c>
       <c r="T4">
-        <v>0.04127532204586046</v>
+        <v>0.06406570500928593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N5">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O5">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P5">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q5">
-        <v>2.271617716392</v>
+        <v>2.430318887417333</v>
       </c>
       <c r="R5">
-        <v>20.444559447528</v>
+        <v>21.872869986756</v>
       </c>
       <c r="S5">
-        <v>0.003757111424699068</v>
+        <v>0.004084617388001412</v>
       </c>
       <c r="T5">
-        <v>0.003757111424699068</v>
+        <v>0.004084617388001412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q6">
         <v>0.1286087547826667</v>
@@ -818,10 +818,10 @@
         <v>1.157478793044</v>
       </c>
       <c r="S6">
-        <v>0.0002127107120284914</v>
+        <v>0.0002161516987561817</v>
       </c>
       <c r="T6">
-        <v>0.0002127107120284914</v>
+        <v>0.0002161516987561817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N7">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q7">
-        <v>0.114509617083</v>
+        <v>0.183949727619</v>
       </c>
       <c r="R7">
-        <v>1.030586553747</v>
+        <v>1.655547548571</v>
       </c>
       <c r="S7">
-        <v>0.0001893916337577169</v>
+        <v>0.0003091628262615181</v>
       </c>
       <c r="T7">
-        <v>0.0001893916337577169</v>
+        <v>0.0003091628262615181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H8">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I8">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J8">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N8">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O8">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P8">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q8">
-        <v>48.825475508808</v>
+        <v>21.14319163153378</v>
       </c>
       <c r="R8">
-        <v>439.429279579272</v>
+        <v>190.288724683804</v>
       </c>
       <c r="S8">
-        <v>0.08075423541856699</v>
+        <v>0.03553519195490612</v>
       </c>
       <c r="T8">
-        <v>0.08075423541856697</v>
+        <v>0.03553519195490612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H9">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I9">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J9">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q9">
-        <v>2.764278320928445</v>
+        <v>1.118865331599556</v>
       </c>
       <c r="R9">
-        <v>24.878504888356</v>
+        <v>10.069787984396</v>
       </c>
       <c r="S9">
-        <v>0.00457194077404176</v>
+        <v>0.001880467955026319</v>
       </c>
       <c r="T9">
-        <v>0.00457194077404176</v>
+        <v>0.001880467955026319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H10">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I10">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J10">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N10">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q10">
-        <v>2.461235648967</v>
+        <v>1.600318526821</v>
       </c>
       <c r="R10">
-        <v>22.151120840703</v>
+        <v>14.402866741389</v>
       </c>
       <c r="S10">
-        <v>0.00407072744189446</v>
+        <v>0.002689642464137828</v>
       </c>
       <c r="T10">
-        <v>0.004070727441894459</v>
+        <v>0.002689642464137828</v>
       </c>
     </row>
   </sheetData>
